--- a/asset/sample/Customer_Upload.xlsx
+++ b/asset/sample/Customer_Upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0 Business\0 Software Development\0 Development\XXX iRestora\0 iRestora Update 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\php7\htdocs\irestora_plus\asset\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Customer Bulk Upload</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>ad.mdnazmul@gmail.com</t>
-  </si>
-  <si>
-    <t>422/A, Park Avenue, Kanakati, UK</t>
   </si>
   <si>
     <t>+96067789391633</t>
@@ -92,6 +89,15 @@
 - Email should be valid email
 - DOB and DOA should be YYYY-MM-DD format</t>
     </r>
+  </si>
+  <si>
+    <t>Default Discount (Flat/Percentage)</t>
+  </si>
+  <si>
+    <t>422/A, Park Avenue, Kanakati, Ukqqq</t>
+  </si>
+  <si>
+    <t>10%</t>
   </si>
 </sst>
 </file>
@@ -170,6 +176,9 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,9 +188,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,80 +469,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
